--- a/N01_LTUDKT_65PM34_BTNhomSo1.xlsx
+++ b/N01_LTUDKT_65PM34_BTNhomSo1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84944\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84944\PycharmProjects\N01_LTUDKT_65PM34_BTNhomSo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3F6C8-2A33-46F3-AC59-E97B25760695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEA9A2-1358-440E-9A55-3A238C27CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50E5FF02-80C3-B245-8AD2-25B6F2CAA48E}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAC3993-F28A-C949-BDCE-62440EBD4189}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -1171,9 +1171,9 @@
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="40.125" customWidth="1"/>
-    <col min="5" max="5" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="56.25" customWidth="1"/>
+    <col min="4" max="4" width="60.375" customWidth="1"/>
+    <col min="5" max="5" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">

--- a/N01_LTUDKT_65PM34_BTNhomSo1.xlsx
+++ b/N01_LTUDKT_65PM34_BTNhomSo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84944\PycharmProjects\N01_LTUDKT_65PM34_BTNhomSo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEA9A2-1358-440E-9A55-3A238C27CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24530D4-EFD0-4BB6-8453-BD73AD4690D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50E5FF02-80C3-B245-8AD2-25B6F2CAA48E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -347,13 +347,88 @@
   </si>
   <si>
     <t>bán thêm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập lựa chọn xắp xếp không hợp lệ </t>
+  </si>
+  <si>
+    <t>sapxep="xyz"</t>
+  </si>
+  <si>
+    <t>Chọn xoá tài liệu mong muốn với mã tài liệu</t>
+  </si>
+  <si>
+    <t>maTaiLieu= None</t>
+  </si>
+  <si>
+    <t>Hiển thị message lỗi: "Mã tài liệu không hợp lệ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn sắp xếp tài liệu dựa theo tên là None </t>
+  </si>
+  <si>
+    <t>sapxep = None</t>
+  </si>
+  <si>
+    <t>Hiển thị message lỗi: "Lựa chọn không hợp lệ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị message lỗi: "Không tìm thấy nhà  </t>
+  </si>
+  <si>
+    <t>Tìm Kiếm nhà xuất bản không tồn tại</t>
+  </si>
+  <si>
+    <t>name ="nxb ABC"</t>
+  </si>
+  <si>
+    <t>xuất bản ABC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không trả về dữ liệu </t>
+  </si>
+  <si>
+    <t>Chọn tài liệu nào cần nhập về để bán thêm với giá</t>
+  </si>
+  <si>
+    <t>listDocument = [Sach1(doanhthu=10), Bao2(doanhthu=15),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bán và số lượng bán là chuỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TapChi3(doanhthu=5)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá Bán là số thập phân </t>
+  </si>
+  <si>
+    <t>Sach(giaBan=5.5, soLuongBan=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn tài liệu cần nhập về với danh sách tài liệu </t>
+  </si>
+  <si>
+    <t>listDocument = None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị message lỗi: "Danh sách tài liệu không </t>
+  </si>
+  <si>
+    <t xml:space="preserve">là None </t>
+  </si>
+  <si>
+    <t>tồn tại"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +454,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -394,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -494,11 +575,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +643,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -824,6 +956,297 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15448642" y="4696278"/>
+          <a:ext cx="184731" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BBC5B1-590E-483B-9228-22F2FAD0B5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19675475" y="514350"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85FE590-D3E2-4488-B21E-4D62ACDA14D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17605375" y="301625"/>
+          <a:ext cx="184731" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2857500" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22C67C6-DDAD-4DF1-BCA6-29304C3F94D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17618075" y="1844675"/>
+          <a:ext cx="2857500" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2857500" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA7A1C8-7E7B-4AD0-82E5-B77AD702E26D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17694275" y="3209925"/>
+          <a:ext cx="2857500" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>799192</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9978</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38310CD-46FD-45D2-88C1-96B2792517F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17210767" y="4772478"/>
           <a:ext cx="184731" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1161,19 +1584,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAC3993-F28A-C949-BDCE-62440EBD4189}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="3" max="3" width="56.25" customWidth="1"/>
-    <col min="4" max="4" width="60.375" customWidth="1"/>
-    <col min="5" max="5" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="49.75" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="56.125" customWidth="1"/>
+    <col min="5" max="5" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -1438,7 +1861,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.5">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1922,6 +2345,232 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.75">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="36"/>
+    </row>
+    <row r="48" spans="1:6" ht="18.75">
+      <c r="A48" s="26">
+        <v>30</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75">
+      <c r="A49" s="10"/>
+      <c r="B49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="36"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.75">
+      <c r="A50" s="26">
+        <v>31</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="36"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75">
+      <c r="A52" s="3"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="37"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="22">
+        <v>32</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="3"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="37"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.75">
+      <c r="A55" s="3">
+        <v>33</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75">
+      <c r="A56" s="22"/>
+      <c r="B56" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="36"/>
+    </row>
+    <row r="57" spans="1:6" ht="18.75">
+      <c r="A57" s="3"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="37"/>
+    </row>
+    <row r="58" spans="1:6" ht="18.75">
+      <c r="A58" s="3">
+        <v>34</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75">
+      <c r="A59" s="22"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="1:6" ht="18.75">
+      <c r="A60" s="3">
+        <v>35</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75">
+      <c r="A61" s="22"/>
+      <c r="B61" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
